--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1736495D-A8EB-450F-B9EE-BB8ADDE5A174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7B0A8-63EC-49DD-B886-122A365393A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
-    <sheet name="TS_001" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -59,40 +58,31 @@
   </si>
   <si>
     <t>P0</t>
-  </si>
-  <si>
-    <t>Test Case Title</t>
-  </si>
-  <si>
-    <t>Pre-requisites</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected result</t>
-  </si>
-  <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Result </t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t>TC-RF_001</t>
   </si>
   <si>
     <t>(TS_001)
 Register functionality</t>
+  </si>
+  <si>
+    <t>(TS_002)
+Login functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of Login account functionality</t>
+  </si>
+  <si>
+    <t>Validate the working of home page &gt; Currency</t>
+  </si>
+  <si>
+    <t>(TS_003)
+Home Page Currency</t>
+  </si>
+  <si>
+    <t>(TS_004)
+Home Page Contact Us</t>
+  </si>
+  <si>
+    <t>Validate the working of home page &gt; Contact Us</t>
   </si>
 </sst>
 </file>
@@ -161,11 +151,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,9 +165,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,125 +480,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:F4"/>
+  <dimension ref="B3:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="27" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5">
-        <v>27</v>
+      <c r="F4" s="4">
+        <v>14</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F85252F2-3AEE-49F2-BAD6-E960FB08B1A1}">
-  <dimension ref="B3:L4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
+    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
+      <c r="E7" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B7B0A8-63EC-49DD-B886-122A365393A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3AD78-7E05-4A8E-BE7D-ECB7D8671CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Validate the working of Register account functionality</t>
-  </si>
-  <si>
-    <t>P0</t>
   </si>
   <si>
     <t>(TS_001)
@@ -74,15 +71,29 @@
     <t>Validate the working of home page &gt; Currency</t>
   </si>
   <si>
+    <t>Validate the working of home page &gt; Contact Us</t>
+  </si>
+  <si>
+    <t>Validate the working of home page &gt; My Account</t>
+  </si>
+  <si>
+    <t>(TS_006)
+ Account</t>
+  </si>
+  <si>
     <t>(TS_003)
-Home Page Currency</t>
+Currency</t>
   </si>
   <si>
     <t>(TS_004)
-Home Page Contact Us</t>
-  </si>
-  <si>
-    <t>Validate the working of home page &gt; Contact Us</t>
+Contact Us</t>
+  </si>
+  <si>
+    <t>(TS_005)
+My Account</t>
+  </si>
+  <si>
+    <t>Validate the working of home page &gt; My Account&gt; Account</t>
   </si>
 </sst>
 </file>
@@ -480,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:F7"/>
+  <dimension ref="B3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,7 +502,7 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="72" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
@@ -516,7 +527,7 @@
     </row>
     <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
@@ -524,60 +535,86 @@
       <c r="D4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
         <v>7</v>
       </c>
+    </row>
+    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3AD78-7E05-4A8E-BE7D-ECB7D8671CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0E772-BEC7-41EE-8BBE-9371F65DFE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>FRS</t>
-  </si>
-  <si>
-    <t>Validate the working of Register account functionality</t>
   </si>
   <si>
     <t>(TS_001)
@@ -65,18 +62,6 @@
 Login functionality</t>
   </si>
   <si>
-    <t>Validate the working of Login account functionality</t>
-  </si>
-  <si>
-    <t>Validate the working of home page &gt; Currency</t>
-  </si>
-  <si>
-    <t>Validate the working of home page &gt; Contact Us</t>
-  </si>
-  <si>
-    <t>Validate the working of home page &gt; My Account</t>
-  </si>
-  <si>
     <t>(TS_006)
  Account</t>
   </si>
@@ -93,7 +78,70 @@
 My Account</t>
   </si>
   <si>
-    <t>Validate the working of home page &gt; My Account&gt; Account</t>
+    <t>(TS_006.1)
+ Edit Information</t>
+  </si>
+  <si>
+    <t>(TS_006.2)
+ Change Password</t>
+  </si>
+  <si>
+    <t>Validate the functionality of Register account functionality</t>
+  </si>
+  <si>
+    <t>Validate the functionality of Login account functionality</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Currency</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Contact Us</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; My Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate the functionality of home page &gt; My Account&gt; Account </t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; My Account&gt; Account &gt;Edit Information.</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; My Account&gt; Account &gt;Change Password.</t>
+  </si>
+  <si>
+    <t>should be completed by 20 with 250 test cases.</t>
+  </si>
+  <si>
+    <t>(TS_006.3)
+ modify book entries</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; My Account&gt; Account &gt;Modify address book entries.</t>
+  </si>
+  <si>
+    <t>yet to test.</t>
+  </si>
+  <si>
+    <t>(TS_007)
+ Wish List</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Wish List</t>
+  </si>
+  <si>
+    <t>(TS_007)
+ Shopping Cart</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Shopping Cart</t>
+  </si>
+  <si>
+    <t>(TS_008)
+ Check Out</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Checkout</t>
   </si>
 </sst>
 </file>
@@ -162,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +224,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -192,6 +243,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1153537</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>67114</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEE251C-9CB4-5368-F87C-F7B1F8E3A5D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3390900" y="7038975"/>
+          <a:ext cx="7249537" cy="3143689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -491,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:F11"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,13 +602,14 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="27" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="72" style="2" customWidth="1"/>
+    <col min="4" max="4" width="79.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="12" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,98 +626,184 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F8" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="2:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="D11" s="5"/>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE0E772-BEC7-41EE-8BBE-9371F65DFE7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEE9A99-5FD0-4AA8-8581-71259D8C33B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Validate the functionality of home page &gt; My Account&gt; Account &gt;Modify address book entries.</t>
   </si>
   <si>
-    <t>yet to test.</t>
-  </si>
-  <si>
     <t>(TS_007)
  Wish List</t>
   </si>
@@ -130,18 +127,25 @@
     <t>Validate the functionality of home page &gt; Wish List</t>
   </si>
   <si>
-    <t>(TS_007)
+    <t>Validate the functionality of home page &gt; Shopping Cart</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Checkout</t>
+  </si>
+  <si>
+    <t>(TS_009)
+ Check Out</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Header &gt; Desktop.</t>
+  </si>
+  <si>
+    <t>(TS_008)
  Shopping Cart</t>
   </si>
   <si>
-    <t>Validate the functionality of home page &gt; Shopping Cart</t>
-  </si>
-  <si>
-    <t>(TS_008)
- Check Out</t>
-  </si>
-  <si>
-    <t>Validate the functionality of home page &gt; Checkout</t>
+    <t>(TS_010)
+ Header Desktop</t>
   </si>
 </sst>
 </file>
@@ -591,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:G15"/>
+  <dimension ref="B3:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -758,48 +762,62 @@
     </row>
     <row r="13" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>25</v>
+      <c r="F13" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEE9A99-5FD0-4AA8-8581-71259D8C33B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF51C7F-E3BB-44A3-9C20-EE9BAE63B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -146,6 +146,27 @@
   <si>
     <t>(TS_010)
  Header Desktop</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Header &gt; Desktop&gt; Sub Desktop Mac.</t>
+  </si>
+  <si>
+    <t>(TS_010.2)
+Sub Desktop Mac</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Header &gt; Desktop&gt; Sub Desktop PC.</t>
+  </si>
+  <si>
+    <t>(TS_010.1)
+Sub Desktop PC</t>
+  </si>
+  <si>
+    <t>(TS_011)
+ Cart</t>
+  </si>
+  <si>
+    <t>Validate the functionality of the product cart  across the app.</t>
   </si>
 </sst>
 </file>
@@ -595,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:G16"/>
+  <dimension ref="B3:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,7 +838,55 @@
         <v>30</v>
       </c>
       <c r="F16" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4">
         <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" s="2">
+        <f>SUM(F4:F22)</f>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF51C7F-E3BB-44A3-9C20-EE9BAE63B4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C170299B-A1EA-4AAB-AF35-C2A6ABEB7B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
-  <dimension ref="B3:G23"/>
+  <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -792,7 +792,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -880,13 +880,19 @@
         <v>38</v>
       </c>
       <c r="F19" s="4">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F23" s="2">
         <f>SUM(F4:F22)</f>
-        <v>121</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F24" s="2">
+        <f>F23-200</f>
+        <v>-54</v>
       </c>
     </row>
   </sheetData>

--- a/Test Scenarios.xlsx
+++ b/Test Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\opencart\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C170299B-A1EA-4AAB-AF35-C2A6ABEB7B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAC949F2-BCD7-4E19-90FE-EAFBB66EC4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E5A88738-20E6-4658-B6AD-BD823AD18E5F}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -130,13 +131,6 @@
     <t>Validate the functionality of home page &gt; Shopping Cart</t>
   </si>
   <si>
-    <t>Validate the functionality of home page &gt; Checkout</t>
-  </si>
-  <si>
-    <t>(TS_009)
- Check Out</t>
-  </si>
-  <si>
     <t>Validate the functionality of home page &gt; Header &gt; Desktop.</t>
   </si>
   <si>
@@ -167,6 +161,13 @@
   </si>
   <si>
     <t>Validate the functionality of the product cart  across the app.</t>
+  </si>
+  <si>
+    <t>(TS_009)
+ Summary Bar</t>
+  </si>
+  <si>
+    <t>Validate the functionality of home page &gt; Shopping Cart summary bar</t>
   </si>
 </sst>
 </file>
@@ -618,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248003FA-88AD-4BFE-A58C-072138182A82}">
   <dimension ref="B3:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -797,7 +798,7 @@
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -806,22 +807,22 @@
         <v>27</v>
       </c>
       <c r="F14" s="4">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>22</v>
@@ -829,13 +830,13 @@
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="4">
         <v>24</v>
@@ -843,13 +844,13 @@
     </row>
     <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4">
         <v>5</v>
@@ -857,13 +858,13 @@
     </row>
     <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="4">
         <v>2</v>
@@ -871,13 +872,13 @@
     </row>
     <row r="19" spans="2:6" ht="30" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" s="4">
         <v>27</v>
@@ -886,13 +887,13 @@
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F23" s="2">
         <f>SUM(F4:F22)</f>
-        <v>146</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F24" s="2">
         <f>F23-200</f>
-        <v>-54</v>
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
